--- a/data/trans_bre/P71_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P71_R-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-1.2371453793529</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.246240643559916</v>
+        <v>2.24624064355991</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6004362345705599</v>
@@ -649,7 +649,7 @@
         <v>-0.04215728737377799</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1386872627067397</v>
+        <v>0.1386872627067394</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.317916796613853</v>
+        <v>2.822768671163152</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.959937613289426</v>
+        <v>-9.256831001074104</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.779769132671643</v>
+        <v>-6.925249833400207</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.033432681161437</v>
+        <v>-6.150983418397682</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2169620713746138</v>
+        <v>0.1795461807766831</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2842610845604549</v>
+        <v>-0.2947543139716245</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2411667401980174</v>
+        <v>-0.2184906636118712</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3000583213107481</v>
+        <v>-0.3022119816105984</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.19023273261613</v>
+        <v>12.75497633143873</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.908461575137332</v>
+        <v>2.958997448500391</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.773209405788177</v>
+        <v>4.765947288835262</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.5796364362702</v>
+        <v>10.61757632141667</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.21231768108017</v>
+        <v>1.180019205300635</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1051787745303784</v>
+        <v>0.1135552327213768</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1870518098102709</v>
+        <v>0.1875056413205016</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.9352688658334574</v>
+        <v>0.8524975657229692</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>-0.0755001999073847</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2612347578297686</v>
+        <v>0.2612347578297687</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.4962116775050768</v>
+        <v>-0.0579769934014633</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.265780829121012</v>
+        <v>-1.075323402933223</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-8.50995444219663</v>
+        <v>-8.181520173084044</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.554087546003226</v>
+        <v>-1.894569394036488</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.02467953946978921</v>
+        <v>-0.003935764950847191</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.04062043304646741</v>
+        <v>-0.03559191027847552</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2242361609540414</v>
+        <v>-0.219492369050388</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.09366679116407259</v>
+        <v>-0.1177948728718824</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.441664785352595</v>
+        <v>8.758849867750454</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.001845186717405</v>
+        <v>9.400188536585734</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.860421676719315</v>
+        <v>3.252417263114018</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9.180515970207573</v>
+        <v>8.876064833943612</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5611878575184585</v>
+        <v>0.594150883782951</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3237065477011765</v>
+        <v>0.3465733214142996</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08482584449347562</v>
+        <v>0.1009007033518831</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8824990919431182</v>
+        <v>0.8618452583953701</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>4.449867969665588</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.6737484745689443</v>
+        <v>-0.6737484745689415</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7110249414363542</v>
@@ -849,7 +849,7 @@
         <v>0.1364290907304806</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.04202657194571728</v>
+        <v>-0.04202657194571711</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.096581382148464</v>
+        <v>6.495859119465372</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.406214933938037</v>
+        <v>-4.943670232484901</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8356390999211607</v>
+        <v>-0.8473066526809738</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.62373803135415</v>
+        <v>-4.621257490355079</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3538737068262012</v>
+        <v>0.3709822905007655</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1438980140021612</v>
+        <v>-0.1289175258679015</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.02352410461753288</v>
+        <v>-0.02402649534088343</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.248986200786009</v>
+        <v>-0.2569723147178185</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.01291833854013</v>
+        <v>15.07135913488304</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.419859117600568</v>
+        <v>6.183201178164123</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.889874708860745</v>
+        <v>9.791264323161654</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.437007227352551</v>
+        <v>3.083486660649658</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.158104640581006</v>
+        <v>1.204243625020591</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1634377135431782</v>
+        <v>0.1917998137543491</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3329094135497245</v>
+        <v>0.3322480520392606</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2558336114387991</v>
+        <v>0.2311698423342101</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>3.633460840392305</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.185111240867631</v>
+        <v>1.185111240867626</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6496634149864496</v>
@@ -949,7 +949,7 @@
         <v>0.09344959347113148</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.0843393398634503</v>
+        <v>0.08433933986344989</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.287218594274359</v>
+        <v>4.974605848164055</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.804957531053823</v>
+        <v>-5.927990499693723</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.640451808356787</v>
+        <v>-1.706944764726417</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.23836675393315</v>
+        <v>-2.443967713026928</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2112906530576312</v>
+        <v>0.2601446256039102</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.134683242779703</v>
+        <v>-0.1617470027856974</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.0682860414037211</v>
+        <v>-0.04150499131743367</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1399752816762228</v>
+        <v>-0.1582472502862298</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>15.33061068875148</v>
+        <v>15.21761160252783</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.338758618426526</v>
+        <v>5.526996974231832</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.293192029165152</v>
+        <v>9.247249764291537</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.971480096980587</v>
+        <v>4.516763062380245</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.106059369801915</v>
+        <v>1.119320119421311</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.205959560839311</v>
+        <v>0.1779418753612986</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2553722165496426</v>
+        <v>0.2541113667739886</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4185887682195764</v>
+        <v>0.370411047825022</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.1367546529420045</v>
+        <v>-0.6996880192627775</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.150161718385468</v>
+        <v>-7.652508384716329</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.150121510044197</v>
+        <v>-3.577993784036241</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.452632424982264</v>
+        <v>-1.575985069876314</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.006501484595232147</v>
+        <v>-0.02817097256986275</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2161787244452737</v>
+        <v>-0.236049415476455</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.08076536505859898</v>
+        <v>-0.09484075981449644</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1131692418063518</v>
+        <v>-0.08056086862503996</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.55200026602291</v>
+        <v>12.15239558060692</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.263302469776113</v>
+        <v>5.170645835262482</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.03202604060417</v>
+        <v>8.745800089481271</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.98951745175194</v>
+        <v>6.205119279373325</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5853718653252226</v>
+        <v>0.6015353488095292</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2260918621127989</v>
+        <v>0.1938099548441944</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3162235149755961</v>
+        <v>0.2690307770733902</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.3787359772382118</v>
+        <v>0.3994989505564135</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>2.532747212288461</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2.173917164410298</v>
+        <v>2.173917164410302</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7477812282129043</v>
@@ -1149,7 +1149,7 @@
         <v>0.08702774252726066</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.2157968046563724</v>
+        <v>0.2157968046563729</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>10.71288638832673</v>
+        <v>10.17424088274294</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-3.004929949002714</v>
+        <v>-2.92908366035486</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-4.979147765362142</v>
+        <v>-4.308673295933995</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.9369283731749292</v>
+        <v>-1.23006112206382</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3794827288043283</v>
+        <v>0.3830461994296374</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1054017982166159</v>
+        <v>-0.1116307595493643</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1423477996923589</v>
+        <v>-0.135764389555334</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.08068940237270433</v>
+        <v>-0.1060939922833631</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>23.85910893507317</v>
+        <v>23.91173594592094</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>10.93579017738712</v>
+        <v>11.14007396687993</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8.993178998422714</v>
+        <v>9.212192344948869</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5.496130694223139</v>
+        <v>5.50080610710067</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.215841000970949</v>
+        <v>1.225753891347418</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5743901586783048</v>
+        <v>0.6073950365025281</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3646810117792926</v>
+        <v>0.3755727341658419</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6838424005618186</v>
+        <v>0.6760642464122737</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9406484240269969</v>
+        <v>1.313856583810134</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.294369765776254</v>
+        <v>-4.299201398725033</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.1786611447666021</v>
+        <v>0.1195630340175485</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7.240503372161672</v>
+        <v>7.437455268887031</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.02547033416815682</v>
+        <v>0.02966761144210295</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1672679911669842</v>
+        <v>-0.1389116206704531</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.01043190943529256</v>
+        <v>0.001785001326680346</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.608257300818439</v>
+        <v>0.6527271277850566</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>18.79379257824786</v>
+        <v>19.10202547545986</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.98606395589321</v>
+        <v>11.08825157146405</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15.57757853994192</v>
+        <v>15.31658172934599</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14.95072323016631</v>
+        <v>14.86524801366765</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.7009648651309697</v>
+        <v>0.7044145750669567</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4733381189901931</v>
+        <v>0.476255412057008</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6288146853291419</v>
+        <v>0.6112707519375327</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>2.215263734402536</v>
+        <v>2.192298455744922</v>
       </c>
     </row>
     <row r="25">
@@ -1349,7 +1349,7 @@
         <v>0.06613137141171703</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.1772261793835979</v>
+        <v>0.177226179383598</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>7.658270147688167</v>
+        <v>7.684382716259795</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-1.218875529803652</v>
+        <v>-1.292967116135823</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.02391273112406396</v>
+        <v>-0.3261652370923291</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.710933553658449</v>
+        <v>0.8135540443575685</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4001131571220857</v>
+        <v>0.3977147870549863</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.03870801608990657</v>
+        <v>-0.04067759254359084</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.0006768718254550332</v>
+        <v>-0.009888458119441132</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.04086100387783726</v>
+        <v>0.05409794352210361</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>11.81764707740943</v>
+        <v>11.7183776674332</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>3.123786408823855</v>
+        <v>3.304406262920182</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4.585238471692598</v>
+        <v>4.471856321329804</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4.220345012012261</v>
+        <v>4.273471390601551</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6882042291250831</v>
+        <v>0.6816929228650506</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1057061373469999</v>
+        <v>0.1103208613115892</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.142961997443364</v>
+        <v>0.1357796725191694</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3155294296187593</v>
+        <v>0.3252148457491223</v>
       </c>
     </row>
     <row r="28">
